--- a/exposures2012to2019.xlsx
+++ b/exposures2012to2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonhester/Desktop/Oklahoma Firearm Death Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landonhester/Documents/GitHub/rcloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD79442C-872E-EE4C-A977-F26B5474CB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE77C69-3DEE-1140-AD15-2A65539726C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19460" yWindow="1840" windowWidth="14480" windowHeight="15940" xr2:uid="{BF80C60B-4A8B-CC4A-A636-DF8F35CB1A96}"/>
+    <workbookView xWindow="19320" yWindow="1840" windowWidth="14480" windowHeight="15940" xr2:uid="{BF80C60B-4A8B-CC4A-A636-DF8F35CB1A96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -61,6 +61,11 @@
     <font>
       <sz val="12"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -84,9 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +411,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,49 +436,89 @@
       <c r="A2">
         <v>186997</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>22306</v>
+      </c>
+      <c r="C2" s="2">
+        <v>196603</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>147799</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>22291</v>
+      </c>
+      <c r="C3" s="2">
+        <v>192121</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>144736</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>22143</v>
+      </c>
+      <c r="C4" s="2">
+        <v>197266</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>166181</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>21832</v>
+      </c>
+      <c r="C5" s="2">
+        <v>196216</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165875</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>21472</v>
+      </c>
+      <c r="C6" s="2">
+        <v>193109</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>147548</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>21021</v>
+      </c>
+      <c r="C7" s="2">
+        <v>192503</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>163291</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>20085</v>
+      </c>
+      <c r="C8" s="2">
+        <v>185762</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>158678</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>19220</v>
+      </c>
+      <c r="C9" s="3">
+        <v>178343</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
